--- a/test_files_v1.3/b_all_pass_varying_required_data-v1.3.1.xlsx
+++ b/test_files_v1.3/b_all_pass_varying_required_data-v1.3.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CancerDataServices-SubmissionValidationR/test_files_v1.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/Documents/GitHub/CancerDataServices-CatchERR/test_files_v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31A1DE-9912-F041-AECA-BB80BC521119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF744AF0-3309-5A48-8904-B4FC3AD9D564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10578" uniqueCount="10000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10578" uniqueCount="9998">
   <si>
     <t>CDS SUBMISSION METADATA TEMPLATE</t>
   </si>
@@ -29941,9 +29941,6 @@
     <t>Radiology</t>
   </si>
   <si>
-    <t>['phs654321']</t>
-  </si>
-  <si>
     <t>i@i.com</t>
   </si>
   <si>
@@ -29969,9 +29966,6 @@
   </si>
   <si>
     <t>WES</t>
-  </si>
-  <si>
-    <t>['phs876543']</t>
   </si>
   <si>
     <t>Myself</t>
@@ -30991,8 +30985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
   <dimension ref="A1:CR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31428,7 +31422,7 @@
         <v>4730</v>
       </c>
       <c r="AU2" t="s">
-        <v>9994</v>
+        <v>9992</v>
       </c>
       <c r="AV2" t="s">
         <v>9956</v>
@@ -31440,7 +31434,7 @@
         <v>9957</v>
       </c>
       <c r="AY2" t="s">
-        <v>9997</v>
+        <v>9995</v>
       </c>
       <c r="BD2">
         <v>1</v>
@@ -31517,7 +31511,7 @@
         <v>4727</v>
       </c>
       <c r="AU3" t="s">
-        <v>9995</v>
+        <v>9993</v>
       </c>
       <c r="AV3" t="s">
         <v>9956</v>
@@ -31529,7 +31523,7 @@
         <v>9961</v>
       </c>
       <c r="AY3" t="s">
-        <v>9998</v>
+        <v>9996</v>
       </c>
       <c r="BD3">
         <v>2</v>
@@ -31606,7 +31600,7 @@
         <v>4730</v>
       </c>
       <c r="AU4" t="s">
-        <v>9996</v>
+        <v>9994</v>
       </c>
       <c r="AV4" t="s">
         <v>9956</v>
@@ -31618,7 +31612,7 @@
         <v>9963</v>
       </c>
       <c r="AY4" t="s">
-        <v>9999</v>
+        <v>9997</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -31671,16 +31665,16 @@
         <v>9966</v>
       </c>
       <c r="J5" t="s">
-        <v>9967</v>
+        <v>9952</v>
       </c>
       <c r="K5" t="s">
         <v>9808</v>
       </c>
       <c r="L5" s="26" t="s">
+        <v>9967</v>
+      </c>
+      <c r="AC5" t="s">
         <v>9968</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>9969</v>
       </c>
       <c r="AD5" t="s">
         <v>9891</v>
@@ -31689,36 +31683,36 @@
         <v>9894</v>
       </c>
       <c r="AK5" t="s">
-        <v>9970</v>
+        <v>9969</v>
       </c>
       <c r="AN5" t="s">
         <v>4731</v>
       </c>
       <c r="AU5" t="s">
+        <v>9970</v>
+      </c>
+      <c r="AV5" t="s">
         <v>9971</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>9972</v>
       </c>
       <c r="AW5">
         <v>6548943487</v>
       </c>
       <c r="AX5" t="s">
+        <v>9972</v>
+      </c>
+      <c r="AY5" t="s">
         <v>9973</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>9974</v>
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9975</v>
+        <v>9974</v>
       </c>
       <c r="C6" t="s">
-        <v>9975</v>
+        <v>9974</v>
       </c>
       <c r="D6" t="s">
-        <v>9993</v>
+        <v>9991</v>
       </c>
       <c r="F6">
         <v>76</v>
@@ -31730,19 +31724,19 @@
         <v>9945</v>
       </c>
       <c r="I6" t="s">
+        <v>9975</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9952</v>
+      </c>
+      <c r="K6" t="s">
         <v>9976</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="26" t="s">
         <v>9977</v>
       </c>
-      <c r="K6" t="s">
+      <c r="AC6" t="s">
         <v>9978</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>9979</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>9980</v>
       </c>
       <c r="AD6" t="s">
         <v>311</v>
@@ -31757,22 +31751,22 @@
         <v>4730</v>
       </c>
       <c r="AU6" t="s">
-        <v>9981</v>
+        <v>9979</v>
       </c>
       <c r="AV6" t="s">
-        <v>9982</v>
+        <v>9980</v>
       </c>
       <c r="AW6">
         <v>6541</v>
       </c>
       <c r="AX6" t="s">
+        <v>9981</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>9982</v>
+      </c>
+      <c r="BD6" t="s">
         <v>9983</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>9984</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>9985</v>
       </c>
       <c r="BF6" t="s">
         <v>383</v>
@@ -31784,7 +31778,7 @@
         <v>466</v>
       </c>
       <c r="BL6" t="s">
-        <v>9986</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -31810,16 +31804,16 @@
         <v>9966</v>
       </c>
       <c r="J7" t="s">
-        <v>9967</v>
+        <v>9952</v>
       </c>
       <c r="K7" t="s">
         <v>9808</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>9968</v>
+        <v>9967</v>
       </c>
       <c r="AC7" t="s">
-        <v>9987</v>
+        <v>9985</v>
       </c>
       <c r="AD7" t="s">
         <v>9892</v>
@@ -31828,28 +31822,28 @@
         <v>9898</v>
       </c>
       <c r="AK7" t="s">
-        <v>9988</v>
+        <v>9986</v>
       </c>
       <c r="AN7" t="s">
         <v>4769</v>
       </c>
       <c r="AU7" t="s">
-        <v>9989</v>
+        <v>9987</v>
       </c>
       <c r="AV7" t="s">
-        <v>9972</v>
+        <v>9971</v>
       </c>
       <c r="AW7">
         <v>5486874487</v>
       </c>
       <c r="AX7" t="s">
+        <v>9988</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>9989</v>
+      </c>
+      <c r="BT7" t="s">
         <v>9990</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>9991</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>9992</v>
       </c>
       <c r="BU7" s="7" t="s">
         <v>4992</v>
@@ -82804,18 +82798,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83010,6 +83004,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -83022,14 +83024,6 @@
     <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
